--- a/public/doc_xls_export/report_profile_tugas_fungsi.xlsx
+++ b/public/doc_xls_export/report_profile_tugas_fungsi.xlsx
@@ -571,22 +571,22 @@
       </c>
       <c s="11" t="inlineStr">
         <is>
-          <t>1970/01/01 07:00:01</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>Tugas Pokok</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>Tugas Pokok</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>s</t>
+          <t>2013/11/06 11:44:35</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>Tupoksi Dit SPKP</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>Tugas Pokok dan Fungsi Dit SPKP</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>Proposal_P1.pdf</t>
         </is>
       </c>
       <c s="11" t="inlineStr">
@@ -596,118 +596,118 @@
       </c>
       <c s="11" t="inlineStr">
         <is>
+          <t>2016/04/19 10:54:43</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>2013/11/12 12:14:05</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>Tugas 1</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>Tugas Pokok dan Fungsi Dit SPKP 1</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>bpom-6.doc</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>2016/04/18 09:58:32</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>2016/04/19 10:52:54</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>TES</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>TES</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>belajar-hacking-website-d.pdf</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>novan</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>2016/04/19 10:56:24</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>2016/04/19 10:58:55</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>Tugas dan Fungsi Sdit promosi keamanan pangan</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>Versi 2016</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>POM_kuesioner_susu_formula.docx</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c s="11" t="inlineStr">
+        <is>
           <t>NULL</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>1970/01/01 07:00:02</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>Tugas Pokok</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>Tugas Pokok</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>Tugas Pokok</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="11" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>2013/11/06 11:44:35</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>Proposal_P1.pdf</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>NULL</t>
-        </is>
-      </c>
-    </row>
-    <row spans="1:7" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c s="11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>2013/11/12 12:14:05</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>Tugas 1</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>tugas</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>bpom-6.doc</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c s="11" t="inlineStr">
-        <is>
-          <t>2013/11/12 12:14:17</t>
         </is>
       </c>
     </row>
